--- a/Sorption Experiments/RaGoe_pH3/RaGoe_pH3_NoScript.xlsx
+++ b/Sorption Experiments/RaGoe_pH3/RaGoe_pH3_NoScript.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\machen\Documents\Dropbox (Personal)\work\MIT Graduate Work\Research\RadiumSorption\Sorption Experiments\RaGoe_pH3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Dropbox (Personal)\work\MIT Graduate Work\Research\RadiumSorption\Sorption Experiments\RaGoe_pH3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="12290" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="12285" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,6 @@
     <sheet name="Bottle Results" sheetId="5" r:id="rId5"/>
     <sheet name="Averaged Results" sheetId="8" r:id="rId6"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId7"/>
-  </externalReferences>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -688,7 +685,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -709,58 +705,52 @@
             </a:ln>
           </c:spPr>
           <c:xVal>
-            <c:numRef>
-              <c:f>'[1]Calibration Data'!$F$3:$F$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>3.4640522875816994E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.9815435847137763E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.2604166666666666E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.0219907407407408E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.4872685185185185E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.39049768518518518</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="6"/>
+              <c:pt idx="0">
+                <c:v>3.4640522875816994E-3</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>7.9815435847137763E-3</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>1.2604166666666666E-2</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>5.0219907407407408E-2</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>9.4872685185185185E-2</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>0.39049768518518518</c:v>
+              </c:pt>
+            </c:numLit>
           </c:xVal>
           <c:yVal>
-            <c:numRef>
-              <c:f>'[1]Calibration Data'!$I$3:$I$8</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.31819999999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.591</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.1819999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15.91</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>31.82</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>159.1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="6"/>
+              <c:pt idx="0">
+                <c:v>0.31819999999999998</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1.591</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>3.1819999999999999</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>15.91</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>31.82</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>159.1</c:v>
+              </c:pt>
+            </c:numLit>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
@@ -776,58 +766,52 @@
             </a:ln>
           </c:spPr>
           <c:xVal>
-            <c:numRef>
-              <c:f>'[1]Calibration Data'!$F$3:$F$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>3.4640522875816994E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.9815435847137763E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.2604166666666666E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.0219907407407408E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.4872685185185185E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.39049768518518518</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="6"/>
+              <c:pt idx="0">
+                <c:v>3.4640522875816994E-3</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>7.9815435847137763E-3</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>1.2604166666666666E-2</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>5.0219907407407408E-2</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>9.4872685185185185E-2</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>0.39049768518518518</c:v>
+              </c:pt>
+            </c:numLit>
           </c:xVal>
           <c:yVal>
-            <c:numRef>
-              <c:f>'[1]Calibration Data'!$B$70:$B$75</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>-1.7375179093564292</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.12652001269851265</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.0339381254012432</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>17.555200391349953</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>35.9801326442823</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>157.96292673562442</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="6"/>
+              <c:pt idx="0">
+                <c:v>-1.7375179093564292</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>0.12652001269851265</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>2.0339381254012432</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>17.555200391349953</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>35.9801326442823</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>157.96292673562442</c:v>
+              </c:pt>
+            </c:numLit>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
@@ -839,11 +823,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="488805592"/>
-        <c:axId val="488804416"/>
+        <c:axId val="501444136"/>
+        <c:axId val="501445312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="488805592"/>
+        <c:axId val="501444136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -865,19 +849,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="488804416"/>
+        <c:crossAx val="501445312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="488804416"/>
+        <c:axId val="501445312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -899,21 +882,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="488805592"/>
+        <c:crossAx val="501444136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -963,108 +944,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sample Parameters"/>
-      <sheetName val="Scintillation Counter Results"/>
-      <sheetName val="Gamma Counter Results"/>
-      <sheetName val="Quality Control Notes"/>
-      <sheetName val="Calibration Data"/>
-      <sheetName val="Stock Log"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4">
-        <row r="3">
-          <cell r="F3">
-            <v>3.4640522875816994E-3</v>
-          </cell>
-          <cell r="I3">
-            <v>0.31819999999999998</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="F4">
-            <v>7.9815435847137763E-3</v>
-          </cell>
-          <cell r="I4">
-            <v>1.591</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="F5">
-            <v>1.2604166666666666E-2</v>
-          </cell>
-          <cell r="I5">
-            <v>3.1819999999999999</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="F6">
-            <v>5.0219907407407408E-2</v>
-          </cell>
-          <cell r="I6">
-            <v>15.91</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="F7">
-            <v>9.4872685185185185E-2</v>
-          </cell>
-          <cell r="I7">
-            <v>31.82</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="F8">
-            <v>0.39049768518518518</v>
-          </cell>
-          <cell r="I8">
-            <v>159.1</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="B70">
-            <v>-1.7375179093564292</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="B71">
-            <v>0.12652001269851265</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="B72">
-            <v>2.0339381254012432</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="B73">
-            <v>17.555200391349953</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="B74">
-            <v>35.9801326442823</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="B75">
-            <v>157.96292673562442</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="5"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1333,16 +1212,16 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:C6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1359,7 +1238,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1367,7 +1246,7 @@
         <v>42419</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1384,7 +1263,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1392,7 +1271,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -1400,7 +1279,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1417,7 +1296,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -1438,13 +1317,13 @@
       <selection activeCell="A74" sqref="A74:A91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1464,7 +1343,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="18">
         <v>42464.413194444445</v>
       </c>
@@ -1484,7 +1363,7 @@
         <v>10.53</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="18">
         <v>42464.413194444445</v>
       </c>
@@ -1504,7 +1383,7 @@
         <v>21.14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="18">
         <v>42464.413194444445</v>
       </c>
@@ -1524,7 +1403,7 @@
         <v>31.76</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
         <v>42464.413194444445</v>
       </c>
@@ -1544,7 +1423,7 @@
         <v>42.38</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="18">
         <v>42464.413194444445</v>
       </c>
@@ -1564,7 +1443,7 @@
         <v>53.01</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="18">
         <v>42464.413194444445</v>
       </c>
@@ -1584,7 +1463,7 @@
         <v>63.65</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="18">
         <v>42464.413194444445</v>
       </c>
@@ -1604,7 +1483,7 @@
         <v>74.260000000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="18">
         <v>42464.413194444445</v>
       </c>
@@ -1624,7 +1503,7 @@
         <v>84.9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="18">
         <v>42464.413194444445</v>
       </c>
@@ -1644,7 +1523,7 @@
         <v>95.52</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="18">
         <v>42464.413194444445</v>
       </c>
@@ -1664,7 +1543,7 @@
         <v>106.15</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="18">
         <v>42464.413194444445</v>
       </c>
@@ -1684,7 +1563,7 @@
         <v>116.79</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="18">
         <v>42464.413194444445</v>
       </c>
@@ -1704,7 +1583,7 @@
         <v>127.44</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="18">
         <v>42464.413194444445</v>
       </c>
@@ -1724,7 +1603,7 @@
         <v>138.19999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="18">
         <v>42464.413194444445</v>
       </c>
@@ -1744,7 +1623,7 @@
         <v>148.86000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="18">
         <v>42464.413194444445</v>
       </c>
@@ -1764,7 +1643,7 @@
         <v>159.52000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="18">
         <v>42464.413194444445</v>
       </c>
@@ -1784,7 +1663,7 @@
         <v>170.2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="18">
         <v>42464.413194444445</v>
       </c>
@@ -1804,7 +1683,7 @@
         <v>180.9</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="18">
         <v>42464.413194444445</v>
       </c>
@@ -1824,7 +1703,7 @@
         <v>191.57</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="18">
         <v>42465.597222222219</v>
       </c>
@@ -1844,7 +1723,7 @@
         <v>10.51</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="18">
         <v>42465.597222222219</v>
       </c>
@@ -1864,7 +1743,7 @@
         <v>21.12</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="18">
         <v>42465.597222164353</v>
       </c>
@@ -1884,7 +1763,7 @@
         <v>31.74</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="18">
         <v>42465.597222164353</v>
       </c>
@@ -1904,7 +1783,7 @@
         <v>42.38</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="18">
         <v>42465.597222164353</v>
       </c>
@@ -1924,7 +1803,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="18">
         <v>42465.597222164353</v>
       </c>
@@ -1944,7 +1823,7 @@
         <v>63.63</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="18">
         <v>42465.597222164353</v>
       </c>
@@ -1964,7 +1843,7 @@
         <v>74.25</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="18">
         <v>42465.597222164353</v>
       </c>
@@ -1984,7 +1863,7 @@
         <v>84.88</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="18">
         <v>42465.597222164353</v>
       </c>
@@ -2004,7 +1883,7 @@
         <v>95.5</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="18">
         <v>42465.597222164353</v>
       </c>
@@ -2024,7 +1903,7 @@
         <v>106.14</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="18">
         <v>42465.597222164353</v>
       </c>
@@ -2044,7 +1923,7 @@
         <v>116.77</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="18">
         <v>42465.597222164353</v>
       </c>
@@ -2064,7 +1943,7 @@
         <v>127.42</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="18">
         <v>42465.597222164353</v>
       </c>
@@ -2084,7 +1963,7 @@
         <v>138.16999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="18">
         <v>42465.597222164353</v>
       </c>
@@ -2104,7 +1983,7 @@
         <v>148.82</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="18">
         <v>42465.597222164353</v>
       </c>
@@ -2124,7 +2003,7 @@
         <v>159.49</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="18">
         <v>42465.597222164353</v>
       </c>
@@ -2144,7 +2023,7 @@
         <v>170.17</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="18">
         <v>42465.597222164353</v>
       </c>
@@ -2164,7 +2043,7 @@
         <v>180.86</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="18">
         <v>42465.597222164353</v>
       </c>
@@ -2184,7 +2063,7 @@
         <v>191.55</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="18">
         <v>42466.703472222223</v>
       </c>
@@ -2204,7 +2083,7 @@
         <v>10.52</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="18">
         <v>42466.703472222223</v>
       </c>
@@ -2224,7 +2103,7 @@
         <v>21.14</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="18">
         <v>42466.703472222223</v>
       </c>
@@ -2244,7 +2123,7 @@
         <v>31.74</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="18">
         <v>42466.703472222223</v>
       </c>
@@ -2264,7 +2143,7 @@
         <v>42.38</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="18">
         <v>42466.703472222223</v>
       </c>
@@ -2284,7 +2163,7 @@
         <v>52.99</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="18">
         <v>42466.703472222223</v>
       </c>
@@ -2304,7 +2183,7 @@
         <v>63.63</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="18">
         <v>42466.703472222223</v>
       </c>
@@ -2324,7 +2203,7 @@
         <v>74.25</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="18">
         <v>42466.703472222223</v>
       </c>
@@ -2344,7 +2223,7 @@
         <v>84.88</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="18">
         <v>42466.703472222223</v>
       </c>
@@ -2364,7 +2243,7 @@
         <v>95.51</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="18">
         <v>42466.703472222223</v>
       </c>
@@ -2384,7 +2263,7 @@
         <v>106.14</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="18">
         <v>42466.703472222223</v>
       </c>
@@ -2404,7 +2283,7 @@
         <v>116.77</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="18">
         <v>42466.703472222223</v>
       </c>
@@ -2424,7 +2303,7 @@
         <v>127.42</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="18">
         <v>42466.703472222223</v>
       </c>
@@ -2444,7 +2323,7 @@
         <v>138.18</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="18">
         <v>42466.703472222223</v>
       </c>
@@ -2464,7 +2343,7 @@
         <v>148.84</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="18">
         <v>42466.703472222223</v>
       </c>
@@ -2484,7 +2363,7 @@
         <v>159.51</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="18">
         <v>42466.703472222223</v>
       </c>
@@ -2504,7 +2383,7 @@
         <v>170.18</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="18">
         <v>42466.703472222223</v>
       </c>
@@ -2524,7 +2403,7 @@
         <v>180.86</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="18">
         <v>42466.703472222223</v>
       </c>
@@ -2544,7 +2423,7 @@
         <v>191.55</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="18">
         <v>42471.644444444442</v>
       </c>
@@ -2564,7 +2443,7 @@
         <v>10.52</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="18">
         <v>42471.644444444442</v>
       </c>
@@ -2584,7 +2463,7 @@
         <v>21.14</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="18">
         <v>42471.644444444442</v>
       </c>
@@ -2604,7 +2483,7 @@
         <v>31.74</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="18">
         <v>42471.644444444442</v>
       </c>
@@ -2624,7 +2503,7 @@
         <v>42.38</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="18">
         <v>42471.644444444442</v>
       </c>
@@ -2644,7 +2523,7 @@
         <v>52.99</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="18">
         <v>42471.644444444442</v>
       </c>
@@ -2664,7 +2543,7 @@
         <v>63.63</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="18">
         <v>42471.644444444442</v>
       </c>
@@ -2684,7 +2563,7 @@
         <v>74.25</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="18">
         <v>42471.644444444442</v>
       </c>
@@ -2704,7 +2583,7 @@
         <v>84.88</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="18">
         <v>42471.644444444442</v>
       </c>
@@ -2724,7 +2603,7 @@
         <v>95.5</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="18">
         <v>42471.644444444442</v>
       </c>
@@ -2744,7 +2623,7 @@
         <v>106.13</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="18">
         <v>42471.644444444442</v>
       </c>
@@ -2764,7 +2643,7 @@
         <v>116.77</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="18">
         <v>42471.644444444442</v>
       </c>
@@ -2784,7 +2663,7 @@
         <v>127.4</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="18">
         <v>42471.644444444442</v>
       </c>
@@ -2804,7 +2683,7 @@
         <v>138.16999999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="18">
         <v>42471.644444444442</v>
       </c>
@@ -2824,7 +2703,7 @@
         <v>148.82</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="18">
         <v>42471.644444444442</v>
       </c>
@@ -2844,7 +2723,7 @@
         <v>159.47999999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="18">
         <v>42471.644444444442</v>
       </c>
@@ -2864,7 +2743,7 @@
         <v>170.16</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="18">
         <v>42471.644444444442</v>
       </c>
@@ -2884,7 +2763,7 @@
         <v>180.84</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="18">
         <v>42471.644444444442</v>
       </c>
@@ -2904,7 +2783,7 @@
         <v>191.53</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="18">
         <v>42472.4375</v>
       </c>
@@ -2924,7 +2803,7 @@
         <v>10.52</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="18">
         <v>42472.4375</v>
       </c>
@@ -2944,7 +2823,7 @@
         <v>21.14</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="18">
         <v>42472.4375</v>
       </c>
@@ -2964,7 +2843,7 @@
         <v>31.75</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="18">
         <v>42472.4375</v>
       </c>
@@ -2984,7 +2863,7 @@
         <v>42.37</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="18">
         <v>42472.4375</v>
       </c>
@@ -3004,7 +2883,7 @@
         <v>52.99</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="18">
         <v>42472.4375</v>
       </c>
@@ -3024,7 +2903,7 @@
         <v>63.63</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="18">
         <v>42472.4375</v>
       </c>
@@ -3044,7 +2923,7 @@
         <v>74.239999999999995</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="18">
         <v>42472.4375</v>
       </c>
@@ -3064,7 +2943,7 @@
         <v>84.88</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="18">
         <v>42472.4375</v>
       </c>
@@ -3084,7 +2963,7 @@
         <v>95.49</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="18">
         <v>42472.4375</v>
       </c>
@@ -3104,7 +2983,7 @@
         <v>106.13</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="18">
         <v>42472.4375</v>
       </c>
@@ -3124,7 +3003,7 @@
         <v>116.76</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="18">
         <v>42472.4375</v>
       </c>
@@ -3144,7 +3023,7 @@
         <v>127.4</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="18">
         <v>42472.4375</v>
       </c>
@@ -3164,7 +3043,7 @@
         <v>138.15</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="18">
         <v>42472.4375</v>
       </c>
@@ -3184,7 +3063,7 @@
         <v>148.80000000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="18">
         <v>42472.4375</v>
       </c>
@@ -3204,7 +3083,7 @@
         <v>159.46</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="18">
         <v>42472.4375</v>
       </c>
@@ -3224,7 +3103,7 @@
         <v>170.14</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="18">
         <v>42472.4375</v>
       </c>
@@ -3244,7 +3123,7 @@
         <v>180.81</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="18">
         <v>42472.4375</v>
       </c>
@@ -3274,29 +3153,29 @@
   <dimension ref="A1:AE76"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="AB1" sqref="AB1:AB1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.7265625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="31.453125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" style="2" customWidth="1"/>
     <col min="3" max="3" width="12" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24.26953125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" style="2" customWidth="1"/>
     <col min="5" max="5" width="10" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.7265625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" style="2" customWidth="1"/>
     <col min="7" max="7" width="12" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.26953125" style="2" customWidth="1"/>
-    <col min="9" max="10" width="18.7265625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="32.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="34.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="35.54296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" style="2" customWidth="1"/>
+    <col min="9" max="10" width="18.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="18" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>43</v>
       </c>
@@ -3333,7 +3212,7 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>51</v>
       </c>
@@ -3369,7 +3248,7 @@
         <v>0.13209164838024126</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>37</v>
       </c>
@@ -3414,7 +3293,7 @@
         <v>0.41681673309525025</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>38</v>
       </c>
@@ -3459,7 +3338,7 @@
         <v>1.6756463301427775</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>39</v>
       </c>
@@ -3504,7 +3383,7 @@
         <v>3.2236087246307998</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>40</v>
       </c>
@@ -3549,7 +3428,7 @@
         <v>15.781905933869924</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>41</v>
       </c>
@@ -3593,7 +3472,7 @@
         <v>31.685788675267496</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>42</v>
       </c>
@@ -3638,7 +3517,7 @@
         <v>159.1374336029937</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>144</v>
       </c>
@@ -3676,7 +3555,7 @@
         <v>675.45815221486782</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>145</v>
       </c>
@@ -3693,7 +3572,7 @@
         <v>341.27116260310561</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="F11"/>
       <c r="G11"/>
@@ -3701,7 +3580,7 @@
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:31" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:31" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>52</v>
       </c>
@@ -3715,7 +3594,7 @@
       <c r="I12" s="22"/>
       <c r="J12" s="21"/>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>53</v>
       </c>
@@ -3733,7 +3612,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
@@ -3744,7 +3623,7 @@
       <c r="H14"/>
       <c r="I14"/>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>54</v>
       </c>
@@ -3774,7 +3653,7 @@
       <c r="AD15" s="25"/>
       <c r="AE15" s="25"/>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>55</v>
       </c>
@@ -3808,7 +3687,7 @@
       <c r="AD16" s="25"/>
       <c r="AE16" s="25"/>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>56</v>
       </c>
@@ -3842,7 +3721,7 @@
       <c r="AD17" s="25"/>
       <c r="AE17" s="25"/>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>57</v>
       </c>
@@ -3876,7 +3755,7 @@
       <c r="AD18" s="25"/>
       <c r="AE18" s="25"/>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>58</v>
       </c>
@@ -3910,7 +3789,7 @@
       <c r="AD19" s="25"/>
       <c r="AE19" s="25"/>
     </row>
-    <row r="20" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>59</v>
       </c>
@@ -3944,7 +3823,7 @@
       <c r="AD20" s="25"/>
       <c r="AE20" s="25"/>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -3968,7 +3847,7 @@
       <c r="AD21" s="25"/>
       <c r="AE21" s="25"/>
     </row>
-    <row r="22" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>60</v>
       </c>
@@ -3997,7 +3876,7 @@
       <c r="AD22" s="25"/>
       <c r="AE22" s="25"/>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="10" t="s">
         <v>61</v>
@@ -4047,7 +3926,7 @@
       <c r="AD23" s="25"/>
       <c r="AE23" s="25"/>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>66</v>
       </c>
@@ -4101,7 +3980,7 @@
       <c r="AD24" s="25"/>
       <c r="AE24" s="25"/>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>67</v>
       </c>
@@ -4147,7 +4026,7 @@
       <c r="AD25" s="25"/>
       <c r="AE25" s="25"/>
     </row>
-    <row r="26" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>68</v>
       </c>
@@ -4189,7 +4068,7 @@
       <c r="AD26" s="25"/>
       <c r="AE26" s="25"/>
     </row>
-    <row r="27" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
@@ -4213,7 +4092,7 @@
       <c r="AD27" s="25"/>
       <c r="AE27" s="25"/>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
       <c r="B28" s="10" t="s">
         <v>69</v>
@@ -4278,7 +4157,7 @@
       <c r="AD28" s="25"/>
       <c r="AE28" s="25"/>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>76</v>
       </c>
@@ -4347,7 +4226,7 @@
       <c r="AD29" s="13"/>
       <c r="AE29" s="25"/>
     </row>
-    <row r="30" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>77</v>
       </c>
@@ -4416,7 +4295,7 @@
       <c r="AD30" s="7"/>
       <c r="AE30" s="25"/>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31"/>
@@ -4440,7 +4319,7 @@
       <c r="AD31" s="7"/>
       <c r="AE31" s="25"/>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
@@ -4464,7 +4343,7 @@
       <c r="AD32" s="25"/>
       <c r="AE32" s="25"/>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33"/>
@@ -4488,7 +4367,7 @@
       <c r="AD33" s="25"/>
       <c r="AE33" s="25"/>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>78</v>
       </c>
@@ -4517,7 +4396,7 @@
       <c r="AD34" s="25"/>
       <c r="AE34" s="25"/>
     </row>
-    <row r="35" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35"/>
@@ -4541,7 +4420,7 @@
       <c r="AD35" s="25"/>
       <c r="AE35" s="25"/>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>79</v>
       </c>
@@ -4580,7 +4459,7 @@
       <c r="AD36" s="25"/>
       <c r="AE36" s="25"/>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>1</v>
       </c>
@@ -4619,7 +4498,7 @@
       <c r="AD37" s="25"/>
       <c r="AE37" s="25"/>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>2</v>
       </c>
@@ -4658,7 +4537,7 @@
       <c r="AD38" s="25"/>
       <c r="AE38" s="25"/>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>3</v>
       </c>
@@ -4697,7 +4576,7 @@
       <c r="AD39" s="25"/>
       <c r="AE39" s="25"/>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>4</v>
       </c>
@@ -4736,7 +4615,7 @@
       <c r="AD40" s="25"/>
       <c r="AE40" s="25"/>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>5</v>
       </c>
@@ -4775,7 +4654,7 @@
       <c r="AD41" s="25"/>
       <c r="AE41" s="25"/>
     </row>
-    <row r="42" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="9">
         <v>6</v>
       </c>
@@ -4814,7 +4693,7 @@
       <c r="AD42" s="25"/>
       <c r="AE42" s="25"/>
     </row>
-    <row r="43" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
@@ -4841,7 +4720,7 @@
       <c r="AD43" s="25"/>
       <c r="AE43" s="25"/>
     </row>
-    <row r="44" spans="1:31" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:31" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="21"/>
       <c r="B44" s="21"/>
       <c r="C44" s="21"/>
@@ -4860,7 +4739,7 @@
       <c r="W44" s="26"/>
       <c r="X44" s="26"/>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
         <v>82</v>
       </c>
@@ -4887,7 +4766,7 @@
       <c r="AD45" s="25"/>
       <c r="AE45" s="25"/>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>53</v>
       </c>
@@ -4922,7 +4801,7 @@
       <c r="AD46" s="25"/>
       <c r="AE46" s="25"/>
     </row>
-    <row r="47" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47"/>
       <c r="B47"/>
       <c r="C47"/>
@@ -4955,7 +4834,7 @@
       <c r="AD47" s="25"/>
       <c r="AE47" s="25"/>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>54</v>
       </c>
@@ -4990,7 +4869,7 @@
       <c r="AD48" s="25"/>
       <c r="AE48" s="25"/>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>55</v>
       </c>
@@ -5027,7 +4906,7 @@
       <c r="AD49" s="25"/>
       <c r="AE49" s="25"/>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>56</v>
       </c>
@@ -5064,7 +4943,7 @@
       <c r="AD50" s="25"/>
       <c r="AE50" s="25"/>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>57</v>
       </c>
@@ -5101,7 +4980,7 @@
       <c r="AD51" s="25"/>
       <c r="AE51" s="25"/>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>58</v>
       </c>
@@ -5138,7 +5017,7 @@
       <c r="AD52" s="25"/>
       <c r="AE52" s="25"/>
     </row>
-    <row r="53" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
         <v>59</v>
       </c>
@@ -5175,7 +5054,7 @@
       <c r="AD53" s="25"/>
       <c r="AE53" s="25"/>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A54"/>
       <c r="B54"/>
       <c r="C54"/>
@@ -5208,7 +5087,7 @@
       <c r="AD54" s="25"/>
       <c r="AE54" s="25"/>
     </row>
-    <row r="55" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>60</v>
       </c>
@@ -5243,7 +5122,7 @@
       <c r="AD55" s="25"/>
       <c r="AE55" s="25"/>
     </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A56" s="10"/>
       <c r="B56" s="10" t="s">
         <v>61</v>
@@ -5286,7 +5165,7 @@
       <c r="AD56" s="25"/>
       <c r="AE56" s="25"/>
     </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>66</v>
       </c>
@@ -5331,7 +5210,7 @@
       <c r="AD57" s="25"/>
       <c r="AE57" s="25"/>
     </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>67</v>
       </c>
@@ -5372,7 +5251,7 @@
       <c r="AD58" s="25"/>
       <c r="AE58" s="25"/>
     </row>
-    <row r="59" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
         <v>68</v>
       </c>
@@ -5411,7 +5290,7 @@
       <c r="AD59" s="25"/>
       <c r="AE59" s="25"/>
     </row>
-    <row r="60" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60"/>
       <c r="B60"/>
       <c r="C60"/>
@@ -5444,7 +5323,7 @@
       <c r="AD60" s="25"/>
       <c r="AE60" s="25"/>
     </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A61" s="10"/>
       <c r="B61" s="10" t="s">
         <v>69</v>
@@ -5493,7 +5372,7 @@
       <c r="AD61" s="25"/>
       <c r="AE61" s="25"/>
     </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>76</v>
       </c>
@@ -5544,7 +5423,7 @@
       <c r="AD62" s="25"/>
       <c r="AE62" s="25"/>
     </row>
-    <row r="63" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="9" t="s">
         <v>77</v>
       </c>
@@ -5595,7 +5474,7 @@
       <c r="AD63" s="25"/>
       <c r="AE63" s="25"/>
     </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A64"/>
       <c r="B64"/>
       <c r="C64"/>
@@ -5628,7 +5507,7 @@
       <c r="AD64" s="25"/>
       <c r="AE64" s="25"/>
     </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A65"/>
       <c r="B65"/>
       <c r="C65"/>
@@ -5661,7 +5540,7 @@
       <c r="AD65" s="25"/>
       <c r="AE65" s="25"/>
     </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A66"/>
       <c r="B66"/>
       <c r="C66"/>
@@ -5694,7 +5573,7 @@
       <c r="AD66" s="25"/>
       <c r="AE66" s="25"/>
     </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>78</v>
       </c>
@@ -5729,7 +5608,7 @@
       <c r="AD67" s="25"/>
       <c r="AE67" s="25"/>
     </row>
-    <row r="68" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68"/>
       <c r="B68"/>
       <c r="C68"/>
@@ -5762,7 +5641,7 @@
       <c r="AD68" s="25"/>
       <c r="AE68" s="25"/>
     </row>
-    <row r="69" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
         <v>79</v>
       </c>
@@ -5801,7 +5680,7 @@
       <c r="AD69" s="25"/>
       <c r="AE69" s="25"/>
     </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A70" s="7">
         <v>1</v>
       </c>
@@ -5840,7 +5719,7 @@
       <c r="AD70" s="25"/>
       <c r="AE70" s="25"/>
     </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A71" s="7">
         <v>2</v>
       </c>
@@ -5879,7 +5758,7 @@
       <c r="AD71" s="25"/>
       <c r="AE71" s="25"/>
     </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A72" s="7">
         <v>3</v>
       </c>
@@ -5896,7 +5775,7 @@
       <c r="H72"/>
       <c r="I72"/>
     </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A73" s="7">
         <v>4</v>
       </c>
@@ -5913,7 +5792,7 @@
       <c r="H73"/>
       <c r="I73"/>
     </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A74" s="7">
         <v>5</v>
       </c>
@@ -5930,7 +5809,7 @@
       <c r="H74"/>
       <c r="I74"/>
     </row>
-    <row r="75" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="9">
         <v>6</v>
       </c>
@@ -5947,7 +5826,7 @@
       <c r="H75"/>
       <c r="I75"/>
     </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:31" x14ac:dyDescent="0.25">
       <c r="E76"/>
       <c r="F76"/>
       <c r="G76"/>
@@ -5965,22 +5844,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:G19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.81640625" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -6003,7 +5882,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>117</v>
       </c>
@@ -6028,7 +5907,7 @@
         <v>0.12664754801760628</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>118</v>
       </c>
@@ -6053,7 +5932,7 @@
         <v>0.12664732371398563</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>119</v>
       </c>
@@ -6078,7 +5957,7 @@
         <v>0.1266475712780564</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>120</v>
       </c>
@@ -6103,7 +5982,7 @@
         <v>0.12664207392888346</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>121</v>
       </c>
@@ -6128,7 +6007,7 @@
         <v>0.12664184116916782</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>122</v>
       </c>
@@ -6153,7 +6032,7 @@
         <v>0.12664152918912969</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>123</v>
       </c>
@@ -6178,7 +6057,7 @@
         <v>0.12662163904334872</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>124</v>
       </c>
@@ -6203,7 +6082,7 @@
         <v>0.1266200363691167</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>125</v>
       </c>
@@ -6228,7 +6107,7 @@
         <v>0.12661963342633212</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>126</v>
       </c>
@@ -6253,7 +6132,7 @@
         <v>0.12659234404929573</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>127</v>
       </c>
@@ -6278,7 +6157,7 @@
         <v>0.12659086714342341</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>128</v>
       </c>
@@ -6303,7 +6182,7 @@
         <v>0.12659633097888764</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>129</v>
       </c>
@@ -6328,7 +6207,7 @@
         <v>0.12652037084586429</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>130</v>
       </c>
@@ -6353,7 +6232,7 @@
         <v>0.12651514875294806</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>131</v>
       </c>
@@ -6378,7 +6257,7 @@
         <v>0.12651579890305317</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>132</v>
       </c>
@@ -6403,7 +6282,7 @@
         <v>0.12639732639897586</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>133</v>
       </c>
@@ -6428,7 +6307,7 @@
         <v>0.12640343562272077</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>134</v>
       </c>
@@ -6453,7 +6332,7 @@
         <v>0.12639986797279468</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>93</v>
       </c>
@@ -6461,7 +6340,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
         <v>94</v>
       </c>
@@ -6469,7 +6348,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>95</v>
       </c>
@@ -6477,7 +6356,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>96</v>
       </c>
@@ -6485,7 +6364,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
         <v>97</v>
       </c>
@@ -6493,7 +6372,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
         <v>98</v>
       </c>
@@ -6501,7 +6380,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
         <v>99</v>
       </c>
@@ -6509,7 +6388,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
         <v>100</v>
       </c>
@@ -6517,7 +6396,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
         <v>101</v>
       </c>
@@ -6525,7 +6404,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
         <v>102</v>
       </c>
@@ -6533,7 +6412,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
         <v>103</v>
       </c>
@@ -6541,7 +6420,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
         <v>104</v>
       </c>
@@ -6549,7 +6428,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
         <v>105</v>
       </c>
@@ -6557,7 +6436,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
         <v>106</v>
       </c>
@@ -6565,7 +6444,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
         <v>107</v>
       </c>
@@ -6573,7 +6452,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
         <v>108</v>
       </c>
@@ -6581,7 +6460,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
         <v>109</v>
       </c>
@@ -6589,7 +6468,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
         <v>110</v>
       </c>
@@ -6613,35 +6492,35 @@
       <selection pane="bottomRight" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.7265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="29.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.1796875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.7265625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="29.81640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -6712,7 +6591,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>117</v>
       </c>
@@ -6780,7 +6659,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>118</v>
       </c>
@@ -6848,7 +6727,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>119</v>
       </c>
@@ -6916,7 +6795,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>120</v>
       </c>
@@ -6984,7 +6863,7 @@
         <v>-0.27863914342061596</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>121</v>
       </c>
@@ -7052,7 +6931,7 @@
         <v>-0.32199504486605418</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>122</v>
       </c>
@@ -7120,7 +6999,7 @@
         <v>-0.38011973567401813</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>123</v>
       </c>
@@ -7188,7 +7067,7 @@
         <v>-2.0594679243320767E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>124</v>
       </c>
@@ -7256,7 +7135,7 @@
         <v>-8.116883410359689E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>125</v>
       </c>
@@ -7324,7 +7203,7 @@
         <v>-9.6410825875569428E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>126</v>
       </c>
@@ -7392,7 +7271,7 @@
         <v>-7.3037188416323243E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>127</v>
       </c>
@@ -7460,7 +7339,7 @@
         <v>-0.10171203588158689</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>128</v>
       </c>
@@ -7528,7 +7407,7 @@
         <v>4.1900540782445449E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>129</v>
       </c>
@@ -7596,7 +7475,7 @@
         <v>-3.6919457491005566E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>130</v>
       </c>
@@ -7664,7 +7543,7 @@
         <v>-4.6987953764335802E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>131</v>
       </c>
@@ -7732,7 +7611,7 @@
         <v>-4.1585433427164829E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>132</v>
       </c>
@@ -7796,7 +7675,7 @@
         <v>-4.5728371904026267E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>133</v>
       </c>
@@ -7860,7 +7739,7 @@
         <v>-1.6834222908547754E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>134</v>
       </c>
@@ -7934,12 +7813,12 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -7971,7 +7850,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -8008,7 +7887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10</v>
       </c>
@@ -8049,7 +7928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>50</v>
       </c>
@@ -8090,7 +7969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>100</v>
       </c>
@@ -8131,7 +8010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>250</v>
       </c>
@@ -8172,7 +8051,7 @@
         <v>5.7735026918961348E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>500</v>
       </c>

--- a/Sorption Experiments/RaGoe_pH3/RaGoe_pH3_NoScript.xlsx
+++ b/Sorption Experiments/RaGoe_pH3/RaGoe_pH3_NoScript.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="131">
   <si>
     <t>Parameters</t>
   </si>
@@ -419,6 +419,12 @@
   </si>
   <si>
     <t>sCw within total activity</t>
+  </si>
+  <si>
+    <t>MinMass (g)</t>
+  </si>
+  <si>
+    <t>sMinMass (g)</t>
   </si>
 </sst>
 </file>
@@ -586,27 +592,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -822,11 +808,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="219603560"/>
-        <c:axId val="219603952"/>
+        <c:axId val="220045952"/>
+        <c:axId val="220037328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="219603560"/>
+        <c:axId val="220045952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -854,12 +840,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="219603952"/>
+        <c:crossAx val="220037328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="219603952"/>
+        <c:axId val="220037328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -887,7 +873,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="219603560"/>
+        <c:crossAx val="220045952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1122,11 +1108,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="216810768"/>
-        <c:axId val="216809984"/>
+        <c:axId val="220040072"/>
+        <c:axId val="220041248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="216810768"/>
+        <c:axId val="220040072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1154,12 +1140,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="216809984"/>
+        <c:crossAx val="220041248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="216809984"/>
+        <c:axId val="220041248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1187,7 +1173,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="216810768"/>
+        <c:crossAx val="220040072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1290,6 +1276,7 @@
       <sheetName val="Scint Cocktail Testing"/>
       <sheetName val="Calibration Data"/>
       <sheetName val="Stock Log"/>
+      <sheetName val="Stock 6 Calc"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -1313,6 +1300,7 @@
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="9"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -7400,7 +7388,7 @@
   <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="I13" sqref="I13"/>
@@ -8653,18 +8641,20 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B6" sqref="B6:M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -8696,13 +8686,19 @@
         <v>111</v>
       </c>
       <c r="K1" t="s">
+        <v>129</v>
+      </c>
+      <c r="L1" t="s">
+        <v>130</v>
+      </c>
+      <c r="M1" t="s">
         <v>124</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -8743,14 +8739,22 @@
         <v>0</v>
       </c>
       <c r="K2">
+        <f>AVERAGE('Bottle Results'!E2:E4)</f>
+        <v>2.9800000000000004E-2</v>
+      </c>
+      <c r="L2">
+        <f>_xlfn.STDEV.S('Bottle Results'!E2:E4)</f>
+        <v>6.2449979983983937E-4</v>
+      </c>
+      <c r="M2">
         <f>COUNT('Bottle Results'!I2:I4)</f>
         <v>3</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10</v>
       </c>
@@ -8791,14 +8795,22 @@
         <v>0</v>
       </c>
       <c r="K3">
+        <f>AVERAGE('Bottle Results'!E5:E7)</f>
+        <v>2.9633333333333331E-2</v>
+      </c>
+      <c r="L3">
+        <f>_xlfn.STDEV.S('Bottle Results'!E5:E7)</f>
+        <v>5.8594652770823188E-4</v>
+      </c>
+      <c r="M3">
         <f>COUNT('Bottle Results'!I5:I7)</f>
         <v>3</v>
       </c>
-      <c r="L3" t="s">
+      <c r="N3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>50</v>
       </c>
@@ -8839,14 +8851,22 @@
         <v>0</v>
       </c>
       <c r="K4">
+        <f>AVERAGE('Bottle Results'!E8:E10)</f>
+        <v>2.9899999999999999E-2</v>
+      </c>
+      <c r="L4">
+        <f>_xlfn.STDEV.S('Bottle Results'!E8:E10)</f>
+        <v>5.1961524227066205E-4</v>
+      </c>
+      <c r="M4">
         <f>COUNT('Bottle Results'!I8:I10)</f>
         <v>3</v>
       </c>
-      <c r="L4" t="s">
+      <c r="N4" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>100</v>
       </c>
@@ -8887,14 +8907,22 @@
         <v>0</v>
       </c>
       <c r="K5">
+        <f>AVERAGE('Bottle Results'!E11:E13)</f>
+        <v>3.0033333333333332E-2</v>
+      </c>
+      <c r="L5">
+        <f>_xlfn.STDEV.S('Bottle Results'!E11:E13)</f>
+        <v>3.2145502536643189E-4</v>
+      </c>
+      <c r="M5">
         <f>COUNT('Bottle Results'!I11:I13)</f>
         <v>3</v>
       </c>
-      <c r="L5" t="s">
+      <c r="N5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>250</v>
       </c>
@@ -8935,14 +8963,22 @@
         <v>5.7735026918961348E-3</v>
       </c>
       <c r="K6">
+        <f>AVERAGE('Bottle Results'!E14:E16)</f>
+        <v>3.0366666666666667E-2</v>
+      </c>
+      <c r="L6">
+        <f>_xlfn.STDEV.S('Bottle Results'!E14:E16)</f>
+        <v>2.08166599946612E-4</v>
+      </c>
+      <c r="M6">
         <f>COUNT('Bottle Results'!I14:I16)</f>
         <v>3</v>
       </c>
-      <c r="L6" t="s">
+      <c r="N6" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>500</v>
       </c>
@@ -8983,10 +9019,18 @@
         <v>0</v>
       </c>
       <c r="K7">
+        <f>AVERAGE('Bottle Results'!E17:E19)</f>
+        <v>2.9833333333333333E-2</v>
+      </c>
+      <c r="L7">
+        <f>_xlfn.STDEV.S('Bottle Results'!E17:E19)</f>
+        <v>4.9328828623162492E-4</v>
+      </c>
+      <c r="M7">
         <f>COUNT('Bottle Results'!I17:I19)</f>
         <v>3</v>
       </c>
-      <c r="L7" t="s">
+      <c r="N7" t="s">
         <v>127</v>
       </c>
     </row>
